--- a/Base/Teams/Steelers/Team Data.xlsx
+++ b/Base/Teams/Steelers/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3</t>
-  </si>
-  <si>
-    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11</t>
-  </si>
-  <si>
-    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4</t>
-  </si>
-  <si>
-    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19</t>
+    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2</t>
+  </si>
+  <si>
+    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5</t>
+  </si>
+  <si>
+    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1</t>
+  </si>
+  <si>
+    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 67 70 65 53 66 65 58 64 70 65 65 62 61 63 56 53 65 50 62 68 66 56 50 61 62 63 68 68 62 57 61 65 56 54 54 61 63 66 66 62 61 60 64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67</t>
-  </si>
-  <si>
-    <t>0 16 22 18 26 4 27 17 17 14 26 24 18 13 21 23 17 20 23 64 18 22 23 26 18 29 15 28 27 35 31 17 21 28 18 19 13 31 23 25 28 33 20 30 75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12</t>
-  </si>
-  <si>
-    <t>33 15 49 24 19 28 24 24 28 23 27 22 29 16 23 10 20 26 6 32 15 25 30 15 20 23 28 24 29 21 22 28 25 24 26 28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25</t>
-  </si>
-  <si>
-    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42</t>
-  </si>
-  <si>
-    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0</t>
-  </si>
-  <si>
-    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0</t>
+    <t>61 61 67 70 65 53 66 65 58 64 70 65 65 62 61 63 56 53 65 50 62 68 66 56 50 61 62 63 68 68 62 57 61 65 56 54 54 61 63 66 66 62 61 60 64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62</t>
+  </si>
+  <si>
+    <t>0 16 22 18 26 4 27 17 17 14 26 24 18 13 21 23 17 20 23 64 18 22 23 26 18 29 15 28 27 35 31 17 21 28 18 19 13 31 23 25 28 33 20 30 75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0</t>
+  </si>
+  <si>
+    <t>33 15 49 24 19 28 24 24 28 23 27 22 29 16 23 10 20 26 6 32 15 25 30 15 20 23 28 24 29 21 22 28 25 24 26 28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13</t>
+  </si>
+  <si>
+    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25</t>
+  </si>
+  <si>
+    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0</t>
+  </si>
+  <si>
+    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -677,10 +677,10 @@
         <v>21</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -689,16 +689,16 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="M2">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="N2">
         <v>20</v>
@@ -710,7 +710,7 @@
         <v>17</v>
       </c>
       <c r="Q2">
-        <v>1014</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -730,19 +730,19 @@
         <v>51</v>
       </c>
       <c r="F3">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J3">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>322</v>
       </c>
       <c r="N3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,37 +943,37 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
         <v>24</v>
       </c>
-      <c r="E2">
-        <v>23</v>
-      </c>
       <c r="F2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>16</v>
       </c>
       <c r="J2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="M2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="N2">
         <v>34</v>
@@ -985,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="Q2">
-        <v>892</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I3">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>262</v>
       </c>
       <c r="N3">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,28 +1215,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G2">
         <v>224</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>102</v>
@@ -1245,16 +1245,16 @@
         <v>97</v>
       </c>
       <c r="L2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Steelers/Team Data.xlsx
+++ b/Base/Teams/Steelers/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2</t>
-  </si>
-  <si>
-    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5</t>
-  </si>
-  <si>
-    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1</t>
-  </si>
-  <si>
-    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6</t>
+    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2</t>
+  </si>
+  <si>
+    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12</t>
+  </si>
+  <si>
+    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2</t>
+  </si>
+  <si>
+    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>0 16 22 18 26 4 27 17 17 14 26 24 18 13 21 23 17 20 23 64 18 22 23 26 18 29 15 28 27 35 31 17 21 28 18 19 13 31 23 25 28 33 20 30 75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0</t>
   </si>
   <si>
-    <t>33 15 49 24 19 28 24 24 28 23 27 22 29 16 23 10 20 26 6 32 15 25 30 15 20 23 28 24 29 21 22 28 25 24 26 28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13</t>
-  </si>
-  <si>
-    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25</t>
-  </si>
-  <si>
-    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0</t>
-  </si>
-  <si>
-    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8</t>
+    <t>33 15 49 24 19 28 24 24 28 23 27 22 29 16 23 10 20 26 6 32 15 25 30 15 20 23 28 24 29 21 22 28 25 24 26 28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17</t>
+  </si>
+  <si>
+    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34</t>
+  </si>
+  <si>
+    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0</t>
+  </si>
+  <si>
+    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>451</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q2">
         <v>1073</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I3">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J3">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="M3">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>806</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>24</v>
       </c>
       <c r="F2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -979,10 +979,10 @@
         <v>34</v>
       </c>
       <c r="O2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q2">
         <v>970</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="M3">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="N3">
         <v>60</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>846</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -1215,28 +1215,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>102</v>
@@ -1245,7 +1245,7 @@
         <v>97</v>
       </c>
       <c r="L2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2">
         <v>57</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
         <v>12</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Steelers/Team Data.xlsx
+++ b/Base/Teams/Steelers/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2</t>
-  </si>
-  <si>
-    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12</t>
-  </si>
-  <si>
-    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2</t>
-  </si>
-  <si>
-    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17</t>
+    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5</t>
+  </si>
+  <si>
+    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4</t>
+  </si>
+  <si>
+    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3</t>
+  </si>
+  <si>
+    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 67 70 65 53 66 65 58 64 70 65 65 62 61 63 56 53 65 50 62 68 66 56 50 61 62 63 68 68 62 57 61 65 56 54 54 61 63 66 66 62 61 60 64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62</t>
-  </si>
-  <si>
-    <t>0 16 22 18 26 4 27 17 17 14 26 24 18 13 21 23 17 20 23 64 18 22 23 26 18 29 15 28 27 35 31 17 21 28 18 19 13 31 23 25 28 33 20 30 75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0</t>
-  </si>
-  <si>
-    <t>33 15 49 24 19 28 24 24 28 23 27 22 29 16 23 10 20 26 6 32 15 25 30 15 20 23 28 24 29 21 22 28 25 24 26 28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17</t>
-  </si>
-  <si>
-    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34</t>
-  </si>
-  <si>
-    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0</t>
-  </si>
-  <si>
-    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0</t>
+    <t>61 61 67 70 65 53 66 65 58 64 70 65 65 62 61 63 56 53 65 50 62 68 66 56 50 61 62 63 68 68 62 57 61 65 56 54 54 61 63 66 66 62 61 60 64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59</t>
+  </si>
+  <si>
+    <t>0 16 22 18 26 4 27 17 17 14 26 24 18 13 21 23 17 20 23 64 18 22 23 26 18 29 15 28 27 35 31 17 21 28 18 19 13 31 23 25 28 33 20 30 75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19</t>
+  </si>
+  <si>
+    <t>33 15 49 24 19 28 24 24 28 23 27 22 29 16 23 10 20 26 6 32 15 25 30 15 20 23 28 24 29 21 22 28 25 24 26 28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18</t>
+  </si>
+  <si>
+    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49</t>
+  </si>
+  <si>
+    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0</t>
+  </si>
+  <si>
+    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,13 +665,13 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>22</v>
@@ -680,7 +680,7 @@
         <v>108</v>
       </c>
       <c r="G2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -689,16 +689,16 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="M2">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="N2">
         <v>25</v>
@@ -710,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="Q2">
-        <v>1073</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I3">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J3">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>350</v>
       </c>
       <c r="N3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>17</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="M2">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="N2">
         <v>34</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>970</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I3">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J3">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>276</v>
       </c>
       <c r="N3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -1239,19 +1239,19 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/Steelers/Team Data.xlsx
+++ b/Base/Teams/Steelers/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5</t>
-  </si>
-  <si>
-    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4</t>
-  </si>
-  <si>
-    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3</t>
-  </si>
-  <si>
-    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8</t>
+    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2</t>
+  </si>
+  <si>
+    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12</t>
+  </si>
+  <si>
+    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3</t>
+  </si>
+  <si>
+    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 67 70 65 53 66 65 58 64 70 65 65 62 61 63 56 53 65 50 62 68 66 56 50 61 62 63 68 68 62 57 61 65 56 54 54 61 63 66 66 62 61 60 64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59</t>
-  </si>
-  <si>
-    <t>0 16 22 18 26 4 27 17 17 14 26 24 18 13 21 23 17 20 23 64 18 22 23 26 18 29 15 28 27 35 31 17 21 28 18 19 13 31 23 25 28 33 20 30 75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19</t>
-  </si>
-  <si>
-    <t>33 15 49 24 19 28 24 24 28 23 27 22 29 16 23 10 20 26 6 32 15 25 30 15 20 23 28 24 29 21 22 28 25 24 26 28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18</t>
-  </si>
-  <si>
-    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49</t>
-  </si>
-  <si>
-    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0</t>
-  </si>
-  <si>
-    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11</t>
+    <t>61 61 67 70 65 53 66 65 58 64 70 65 65 62 61 63 56 53 65 50 62 68 66 56 50 61 62 63 68 68 62 57 61 65 56 54 54 61 63 66 66 62 61 60 64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59 60</t>
+  </si>
+  <si>
+    <t>0 16 22 18 26 4 27 17 17 14 26 24 18 13 21 23 17 20 23 64 18 22 23 26 18 29 15 28 27 35 31 17 21 28 18 19 13 31 23 25 28 33 20 30 75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19 20</t>
+  </si>
+  <si>
+    <t>33 15 49 24 19 28 24 24 28 23 27 22 29 16 23 10 20 26 6 32 15 25 30 15 20 23 28 24 29 21 22 28 25 24 26 28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18 19 29 13</t>
+  </si>
+  <si>
+    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49 58 63</t>
+  </si>
+  <si>
+    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0 18 0</t>
+  </si>
+  <si>
+    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11 0 20</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D2">
         <v>27</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>468</v>
       </c>
       <c r="N2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q2">
         <v>1125</v>
@@ -721,37 +721,37 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G3">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H3">
         <v>59</v>
       </c>
       <c r="I3">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J3">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="M3">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="N3">
         <v>23</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>882</v>
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
       <c r="F2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>343</v>
       </c>
       <c r="N2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2">
         <v>1052</v>
@@ -996,37 +996,37 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>205</v>
+      </c>
+      <c r="G3">
+        <v>63</v>
+      </c>
+      <c r="H3">
         <v>74</v>
       </c>
-      <c r="F3">
-        <v>199</v>
-      </c>
-      <c r="G3">
-        <v>60</v>
-      </c>
-      <c r="H3">
-        <v>73</v>
-      </c>
       <c r="I3">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J3">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="M3">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="N3">
         <v>64</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>915</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -1239,10 +1239,10 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <v>73</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Steelers/Team Data.xlsx
+++ b/Base/Teams/Steelers/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2</t>
-  </si>
-  <si>
-    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12</t>
-  </si>
-  <si>
-    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3</t>
-  </si>
-  <si>
-    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22</t>
+    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 4 3 8 6 5 8 1 7 0 8 5 14 2 30 -1 5 3 4 1 10 5 3 5 2 3 4 4 4 37</t>
+  </si>
+  <si>
+    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 6 -4 8 -2 6 0 5 11 7 3 5 0 13 1 12 3 9 1 8 4 3 10 12 2</t>
+  </si>
+  <si>
+    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 -2 32 2 6 4 1 2 4 1 3 4 7 3 6 0 -2 4 2 14 2</t>
+  </si>
+  <si>
+    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 20 9 22 7 7 39 3 21 8 8 1 8 9 1 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 67 70 65 53 66 65 58 64 70 65 65 62 61 63 56 53 65 50 62 68 66 56 50 61 62 63 68 68 62 57 61 65 56 54 54 61 63 66 66 62 61 60 64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59 60</t>
-  </si>
-  <si>
-    <t>0 16 22 18 26 4 27 17 17 14 26 24 18 13 21 23 17 20 23 64 18 22 23 26 18 29 15 28 27 35 31 17 21 28 18 19 13 31 23 25 28 33 20 30 75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19 20</t>
+    <t>61 61 67 70 65 53 66 65 58 64 70 65 65 62 61 63 56 53 65 50 62 68 66 56 50 61 62 63 68 68 62 57 61 65 56 54 54 61 63 66 66 62 61 60 64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59 60 62 65 59 60 68 66</t>
+  </si>
+  <si>
+    <t>0 16 22 18 26 4 27 17 17 14 26 24 18 13 21 23 17 20 23 64 18 22 23 26 18 29 15 28 27 35 31 17 21 28 18 19 13 31 23 25 28 33 20 30 75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19 20 21 21 29 21 27 21</t>
   </si>
   <si>
     <t>33 15 49 24 19 28 24 24 28 23 27 22 29 16 23 10 20 26 6 32 15 25 30 15 20 23 28 24 29 21 22 28 25 24 26 28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18 19 29 13</t>
   </si>
   <si>
-    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49 58 63</t>
-  </si>
-  <si>
-    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0 18 0</t>
-  </si>
-  <si>
-    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11 0 20</t>
+    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49 58 63 53 43 44 53 51</t>
+  </si>
+  <si>
+    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0 18 0 4 0 9 9 7</t>
+  </si>
+  <si>
+    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11 0 20 0 0 15 10 5 0 14</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="D2">
         <v>27</v>
@@ -677,10 +677,10 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -689,28 +689,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="M2">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="N2">
         <v>27</v>
       </c>
       <c r="O2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2">
-        <v>1125</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G3">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="J3">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>378</v>
       </c>
       <c r="N3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -952,40 +952,40 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="M2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="N2">
         <v>36</v>
       </c>
       <c r="O2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2">
-        <v>1052</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>215</v>
+      </c>
+      <c r="G3">
+        <v>64</v>
+      </c>
+      <c r="H3">
         <v>76</v>
       </c>
-      <c r="F3">
-        <v>205</v>
-      </c>
-      <c r="G3">
-        <v>63</v>
-      </c>
-      <c r="H3">
-        <v>74</v>
-      </c>
       <c r="I3">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J3">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>299</v>
       </c>
       <c r="N3">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -1239,22 +1239,22 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>16</v>
@@ -1368,10 +1368,10 @@
         <v>14</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
         <v>16</v>
-      </c>
-      <c r="E3">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Steelers/Team Data.xlsx
+++ b/Base/Teams/Steelers/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 4 3 8 6 5 8 1 7 0 8 5 14 2 30 -1 5 3 4 1 10 5 3 5 2 3 4 4 4 37</t>
-  </si>
-  <si>
-    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 6 -4 8 -2 6 0 5 11 7 3 5 0 13 1 12 3 9 1 8 4 3 10 12 2</t>
-  </si>
-  <si>
-    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 -2 32 2 6 4 1 2 4 1 3 4 7 3 6 0 -2 4 2 14 2</t>
-  </si>
-  <si>
-    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 20 9 22 7 7 39 3 21 8 8 1 8 9 1 7</t>
+    <t>2 3 0 3 1 3 6 -1 1 8 1 5 11 3 14 5 0 21 -2 1 5 0 30 2 4 1 7 1 0 8 11 2 2 3 12 2 2 3 -1 2 -2 3 4 -2 5 59 4 0 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 4 1 1 3 1 3 4 -1 2 0 25 2 2 0 0 58 7 0 1 1 0 -1 5 -1 8 1 1 1 8 2 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 4 2 6 1 6 10 7 3 9 2 1 24 8 2 9 -1 6 -3 0 5 0 3 5 3 -1 1 9 4 4 0 18 6 -2 3 3 1 -3 1 1 3 0 3 8 3 6 2 3 -2 1 0 6 1 4 6 2 3 4 5 1 7 1 16 0 -6 -3 -5 1 1 0 11 1 3 0 -1 2 2 8 5 25 3 3 0 3 2 1 1 1 3 17 1 12 1 2 2 0 3 -1 5 3 1 5 2 1 3 3 -2 7 3 1 2 3 10 3 3 2 13 7 2 1 0 0 7 -1 2 4 0 0 1 1 9 1 -2 -1 3 3 3 3 1 7 2 5 5 3 1 0 5 1 0 6 2 0 5 3 6 0 13 2 -6 3 4 7 2 29 13 3 -2 6 -2 -3 1 -1 2 -2 2 1 1 1 2 -1 4 12 2 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 4 3 8 6 5 8 1 7 0 8 5 14 2 30 -1 5 3 4 1 10 5 3 5 2 3 4 4 4 37 1 1 5 9 -1 2 2 -6 1 1 2 0 7 14 1 -1 3 17 -1 0 2 4 3 0 2 0 15 2 -2 2 5 2 4 3 4 4 8 0 -2 2 4 7 2 13 4</t>
+  </si>
+  <si>
+    <t>11 28 6 2 18 3 10 2 21 17 14 13 9 10 18 1 11 5 11 11 8 8 15 8 5 18 7 10 18 84 9 6 9 -4 2 4 11 10 2 6 0 21 8 -4 5 7 28 12 3 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 2 4 -2 5 7 12 8 4 -1 15 32 11 3 17 6 5 7 5 4 8 11 14 2 11 12 2 2 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 7 14 6 9 4 5 14 9 5 11 22 2 -5 21 18 6 9 7 7 5 2 7 9 2 7 5 7 28 7 4 3 8 10 0 7 24 18 14 9 8 13 7 14 0 9 6 4 5 2 11 8 6 -4 6 14 7 5 8 8 9 13 4 9 10 5 17 1 2 18 2 20 20 9 31 8 7 8 9 14 3 9 42 5 8 13 1 10 -6 4 46 16 12 14 4 15 24 8 18 24 17 3 6 11 8 14 12 11 6 9 8 5 7 7 8 1 10 22 10 14 5 4 12 31 2 -2 20 23 6 -2 5 4 1 8 3 4 2 9 9 8 5 -2 13 20 13 1 4 5 3 17 27 6 11 5 4 7 22 8 13 -1 5 11 4 1 5 6 10 8 7 8 1 7 7 5 8 5 3 3 3 16 6 3 0 30 13 4 5 -2 17 4 15 8 8 3 -4 30 50 6 2 1 1 14 6 16 8 5 7 7 2 5 4 9 22 5 12 4 4 13 8 20 19 4 13 1 6 5 6 17 8 9 17 7 3 6 4 -2 3 0 3 9 12 37 23 8 8 4 0 9 21 4 14 6 8 9 7 9 7 11 -1 5 5 8 10 17 22 8 11 11 34 10 39 13 10 1 5 7 10 7 10 9 25 5 8 6 3 4 6 1 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 6 -4 8 -2 6 0 5 11 7 3 5 0 13 1 12 3 9 1 8 4 3 10 12 2 4 11 10 7 0 7 25 2 5 16 8 2 10 10 7 8 -2 8 20 11 3 6 10 6 3 11 14 1 11 3 4 7 5 5 0 16 0 6 8 5 5 22 13 1 4 7 9 8 15 5 5 7 7 10 12 11 11</t>
+  </si>
+  <si>
+    <t>-1 7 -5 1 -4 1 -2 -2 -2 5 -4 4 1 4 6 2 7 -1 13 7 -2 6 17 16 3 1 9 -2 -2 2 6 0 2 1 3 0 4 13 4 3 10 2 2 -1 3 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 -2 2 1 74 1 3 3 1 -2 4 6 4 -3 0 0 2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 1 14 6 3 -2 2 0 4 -4 9 1 2 0 2 3 9 3 1 4 17 6 0 1 4 4 -1 1 4 3 4 3 28 1 6 5 25 6 12 3 14 3 5 1 4 2 0 4 8 9 4 8 2 4 1 4 2 0 3 -2 3 7 4 9 5 20 15 3 2 2 2 5 2 4 20 -1 -1 0 15 11 0 3 3 -2 5 8 3 20 5 12 -2 0 1 0 8 5 10 2 3 4 -1 3 1 1 14 8 2 11 4 1 6 0 12 1 15 -1 2 8 7 4 1 5 3 12 0 0 2 5 1 18 3 1 10 2 1 1 8 1 1 -4 1 5 6 11 3 1 -1 -1 39 4 4 1 19 3 0 6 0 5 7 -2 -2 6 0 1 9 1 13 1 3 0 8 5 4 0 1 1 1 3 2 3 3 2 -2 0 0 6 5 3 0 3 11 6 3 14 1 3 3 3 1 4 5 -4 4 13 6 3 2 -2 11 2 8 0 -5 7 1 1 4 6 5 0 1 6 1 4 4 11 1 2 3 -1 3 -1 3 5 7 9 1 4 8 8 23 4 5 1 3 4 -1 5 4 0 6 11 11 -2 6 2 7 1 2 1 4 3 5 3 4 1 1 5 2 4 4 8 3 18 7 -1 1 10 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 -2 32 2 6 4 1 2 4 1 3 4 7 3 6 0 -2 4 2 14 2 2 2 0 4 22 -5 2 3 3 4 2 3 18 8 -1 8 10 46 1 22 27 3 6 0 4 2 6 1 21 0 11 4 4 3 1 6 4 4 4 2 2 -1 23 -2 15 13 12 1 0 -2 -4 5 4 3 6 11 -1</t>
+  </si>
+  <si>
+    <t>13 14 7 1 11 12 41 14 18 5 13 10 4 4 5 5 4 15 10 6 7 7 5 7 20 20 19 1 15 45 17 13 14 8 20 -2 1 1 18 17 16 7 22 5 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 5 13 7 9 18 6 20 9 37 31 11 8 2 18 19 18 13 11 4 9 8 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 13 19 7 4 4 3 73 4 6 20 9 17 9 -1 7 -2 21 7 14 34 6 3 11 6 10 18 39 24 3 8 6 32 1 10 16 20 4 14 10 8 -4 16 8 5 14 9 14 2 32 20 6 8 -4 5 20 9 54 5 7 13 8 13 5 9 16 3 13 0 5 3 17 15 9 -4 18 13 19 15 8 6 17 10 -1 3 3 5 -1 5 6 7 3 8 7 70 12 8 8 6 0 5 2 12 6 2 16 3 30 11 1 4 5 31 9 -2 30 6 6 6 16 8 15 7 6 29 -2 2 13 8 -1 4 7 6 7 23 7 18 5 6 8 12 19 22 19 13 8 4 9 12 9 16 9 30 14 8 14 4 10 26 16 5 17 25 14 8 42 20 8 6 11 18 4 7 11 5 0 4 21 2 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 20 9 22 7 7 39 3 21 8 8 1 8 9 1 7 3 19 13 11 10 6 0 28 7 1 5 1 6 11 8 12 -4 20 5 5 4 15 20 2 14 15 5 4 31 0 3 12 15 27 48 29 8 23 4 1 31 6 15 3 41 2 2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 67 70 65 53 66 65 58 64 70 65 65 62 61 63 56 53 65 50 62 68 66 56 50 61 62 63 68 68 62 57 61 65 56 54 54 61 63 66 66 62 61 60 64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59 60 62 65 59 60 68 66</t>
-  </si>
-  <si>
-    <t>0 16 22 18 26 4 27 17 17 14 26 24 18 13 21 23 17 20 23 64 18 22 23 26 18 29 15 28 27 35 31 17 21 28 18 19 13 31 23 25 28 33 20 30 75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19 20 21 21 29 21 27 21</t>
-  </si>
-  <si>
-    <t>33 15 49 24 19 28 24 24 28 23 27 22 29 16 23 10 20 26 6 32 15 25 30 15 20 23 28 24 29 21 22 28 25 24 26 28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18 19 29 13</t>
-  </si>
-  <si>
-    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49 58 63 53 43 44 53 51</t>
-  </si>
-  <si>
-    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0 18 0 4 0 9 9 7</t>
-  </si>
-  <si>
-    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11 0 20 0 0 15 10 5 0 14</t>
+    <t>61 61 67 70 65 53 66 65 58 64 70 65 65 62 61 63 56 53 65 50 62 68 66 56 50 61 62 63 68 68 62 57 61 65 56 54 54 61 63 66 66 62 61 60 64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59 60 62 65 59 60 68 66 53 56 58 59 59 64 60</t>
+  </si>
+  <si>
+    <t>0 16 22 18 26 4 27 17 17 14 26 24 18 13 21 23 17 20 23 64 18 22 23 26 18 29 15 28 27 35 31 17 21 28 18 19 13 31 23 25 28 33 20 30 75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19 20 21 21 29 21 27 21 19 23 27 26 18 23 27</t>
+  </si>
+  <si>
+    <t>33 15 49 24 19 28 24 24 28 23 27 22 29 16 23 10 20 26 6 32 15 25 30 15 20 23 28 24 29 21 22 28 25 24 26 28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18 19 29 13 32 13 21 23 14 29</t>
+  </si>
+  <si>
+    <t>39 59 50 35 42 36 35 54 42 48 47 34 48 39 44 44 37 44 40 44 49 51 34 47 34 34 56 48 34 57 62 50 48 53 37 58 58 62 29 33 55 40 48 40 42 56 30 49 52 59 32 40 38 45 42 40 35 31 32 46 46 53 50 55 42 52 61 61 43 49 50 44 41 36 56 38 38 28 59 41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49 58 63 53 43 44 53 51 36 34 26 49 33 46 36 38 54 56 55 42 47 41 53</t>
+  </si>
+  <si>
+    <t>8 20 11 0 6 9 0 0 0 8 1 0 8 0 1 4 2 0 0 0 0 5 0 0 0 0 15 0 0 3 83 6 13 0 0 0 0 0 0 0 10 0 0 0 0 11 0 0 0 14 0 0 0 0 0 0 0 0 0 0 15 6 0 11 0 0 0 15 0 26 22 0 0 0 0 4 8 0 0 0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0 18 0 4 0 9 9 7 0 0 0 0 0 0 0 0 21 1 48 0 0 0 -8</t>
+  </si>
+  <si>
+    <t>0 1 0 12 18 0 0 0 0 0 13 12 0 0 6 6 4 0 0 0 16 17 11 57 15 0 5 0 0 0 0 0 15 0 0 0 8 -5 0 42 0 5 0 0 0 14 0 0 0 0 6 0 0 0 0 17 0 11 0 0 0 0 0 0 0 0 0 11 0 8 0 0 0 8 8 5 0 3 0 0 0 11 5 0 0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11 0 20 0 0 15 10 5 0 14 7 0 0 0 23 0 0 8 0 0 5</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="D2">
         <v>27</v>
@@ -677,10 +677,10 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>492</v>
       </c>
       <c r="N2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q2">
         <v>1206</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="D3">
         <v>18</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="G3">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I3">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J3">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>597</v>
+        <v>686</v>
       </c>
       <c r="M3">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="N3">
         <v>25</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>955</v>
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -940,31 +940,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
       <c r="F2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H2">
         <v>13</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>359</v>
       </c>
       <c r="N2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2">
         <v>1126</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F3">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I3">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="M3">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="N3">
         <v>73</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>985</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -1239,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N2">
         <v>21</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
